--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Projects/Data_Science_Short_Course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0FEE61-F290-844A-9C98-93B8ACAEDDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED59F6E-1DF6-6946-87D1-50BB14AF1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="520" windowWidth="44480" windowHeight="28300" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>Solution_Command_for_loop.ipynb</t>
   </si>
   <si>
-    <t>Command_def_return_import_making own_commands_and_importing_these.ipynb</t>
-  </si>
-  <si>
     <t>Exercise_Command_def_return_import_making_own_commands_and_importing_these.ipynb</t>
   </si>
   <si>
@@ -668,6 +665,9 @@
   </si>
   <si>
     <t>Exercise_Command_Plot_data_points_with_error_bars.ipynb</t>
+  </si>
+  <si>
+    <t>Command_def_return_import_making_own_commands_and_importing_these.ipynb</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1319,27 +1319,27 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -1360,21 +1360,21 @@
         <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1398,18 +1398,18 @@
         <v>35</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1418,33 +1418,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3">
         <v>0.47500000000000003</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -1453,33 +1453,33 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3">
         <v>0.45069444444444445</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -1529,27 +1529,27 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -1558,33 +1558,33 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3">
         <v>0.21180555555555555</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -1593,33 +1593,33 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3">
         <v>0.39166666666666666</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -1628,33 +1628,33 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="3">
         <v>0.25763888888888892</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1669,27 +1669,27 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -1698,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3">
         <v>0.26041666666666669</v>
@@ -1710,21 +1710,21 @@
         <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -1733,33 +1733,33 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
@@ -1768,33 +1768,33 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="3">
         <v>0.68888888888888899</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3">
         <v>0.57986111111111105</v>
@@ -1818,18 +1818,18 @@
         <v>35</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
@@ -1844,27 +1844,27 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -1873,33 +1873,33 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
@@ -1908,33 +1908,33 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="3">
         <v>0.47638888888888892</v>
@@ -1952,24 +1952,24 @@
         <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>7</v>
@@ -1978,33 +1978,33 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="3">
         <v>0.40625</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
@@ -2013,33 +2013,33 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3">
         <v>0.63055555555555554</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1">
         <v>7</v>
@@ -2048,33 +2048,33 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="3">
         <v>0.37638888888888888</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="1">
         <v>7</v>
@@ -2083,28 +2083,28 @@
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3">
         <v>0.27361111111111108</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Projects/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF3E78B0-2B58-754F-A2C9-13BD135A7614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98AD2D1-DF58-8343-8635-698C8D3BD871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="0" windowWidth="38280" windowHeight="28800" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="12920" yWindow="500" windowWidth="38280" windowHeight="28300" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material_data_science_sh" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="206">
   <si>
     <t>Titel</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Youtube</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/546101347</t>
   </si>
   <si>
     <t>Kapitel</t>
@@ -91,13 +88,7 @@
 </t>
   </si>
   <si>
-    <t>https://vimeo.com/599697548</t>
-  </si>
-  <si>
     <t>https://youtu.be/SwjXloggvRM</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/589858557</t>
   </si>
   <si>
     <t>https://youtu.be/xn-1s7TRkIk</t>
@@ -154,9 +145,6 @@
 </t>
   </si>
   <si>
-    <t>https://vimeo.com/599696793</t>
-  </si>
-  <si>
     <t>https://youtu.be/0TUoVg7Du-w</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>Solution_Command_for_loop.ipynb</t>
   </si>
   <si>
-    <t>Command_def_return_import_making own_commands_and_importing_these.ipynb</t>
-  </si>
-  <si>
     <t>Exercise_Command_def_return_import_making_own_commands_and_importing_these.ipynb</t>
   </si>
   <si>
@@ -268,9 +253,6 @@
     <t xml:space="preserve">Und schon jetzt wird es wirklich cool: wir basteln uns einen eigenen Befehl, und legen den in einer Datei ab. Diese Datei können wir fortan importieren wenn wir den Befehl brauchen, und diesen dann einfach anwenden. – Die Datei lässt sich ab sofort um immer mehr Befehle erweitern, welche in der Mineralogie nützlich sind: Aufschmelzung, Mischung, Umrechnungen, Formelberechnung, Isotopen-Fraktionierungen, Gesteinsalter, Thermobarometrie, jegliche Modelle – und vieles mehr. </t>
   </si>
   <si>
-    <t>https://vimeo.com/599696324</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=x78T8dn8bW4</t>
   </si>
   <si>
@@ -286,33 +268,18 @@
     <t>https://youtu.be/-8xz6yr5kB0</t>
   </si>
   <si>
-    <t>https://vimeo.com/606265047</t>
-  </si>
-  <si>
     <t>https://youtu.be/yXb5HHuIuqk</t>
   </si>
   <si>
-    <t>https://vimeo.com/607226446</t>
-  </si>
-  <si>
     <t>https://youtu.be/WRpxCtj-g14</t>
   </si>
   <si>
-    <t>https://vimeo.com/609983778</t>
-  </si>
-  <si>
     <t>https://youtu.be/p938Ji5BNEs</t>
   </si>
   <si>
-    <t>https://vimeo.com/610036139</t>
-  </si>
-  <si>
     <t>https://youtu.be/zbUv3SuEvS8</t>
   </si>
   <si>
-    <t>https://vimeo.com/610877259</t>
-  </si>
-  <si>
     <t>https://youtu.be/M1bPtrpAhbM</t>
   </si>
   <si>
@@ -322,15 +289,9 @@
     <t>https://youtu.be/Dl9KGsf1_CY</t>
   </si>
   <si>
-    <t>https://vimeo.com/610906017</t>
-  </si>
-  <si>
     <t>https://youtu.be/EwDaGK-nlgI</t>
   </si>
   <si>
-    <t>https://vimeo.com/610953138</t>
-  </si>
-  <si>
     <t>https://youtu.be/EyYYi2VCb0g</t>
   </si>
   <si>
@@ -346,15 +307,9 @@
     <t>https://youtu.be/WXv79tpor5s</t>
   </si>
   <si>
-    <t>https://vimeo.com/613622392</t>
-  </si>
-  <si>
     <t>https://youtu.be/x571C3rJJM0</t>
   </si>
   <si>
-    <t>https://vimeo.com/644874401</t>
-  </si>
-  <si>
     <t>https://youtu.be/i2fpkcdhUlU</t>
   </si>
   <si>
@@ -380,9 +335,6 @@
   </si>
   <si>
     <t>https://youtu.be/U1KDPsTmvgw</t>
-  </si>
-  <si>
-    <t>https://vimeo.com/648675256</t>
   </si>
   <si>
     <t>https://youtu.be/aCY6PWt_TTU</t>
@@ -681,6 +633,30 @@
   </si>
   <si>
     <t>Task- Building a complex interactive figure</t>
+  </si>
+  <si>
+    <t>Command_def_return_import_making_own_commands_and_importing_these.ipynb</t>
+  </si>
+  <si>
+    <t>Youtube_eng</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Solution ipynb</t>
+  </si>
+  <si>
+    <t>Exercise ipynb</t>
+  </si>
+  <si>
+    <t>Lecture ipynb</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>key words</t>
   </si>
 </sst>
 </file>
@@ -1130,58 +1106,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
-    <col min="6" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="47" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.83203125" customWidth="1"/>
+    <col min="8" max="13" width="15" customWidth="1"/>
+    <col min="14" max="15" width="47" customWidth="1"/>
+    <col min="16" max="17" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1192,33 +1185,51 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" s="10">
+        <v>195</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="10">
         <v>0.12847222222222224</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>35</v>
+      <c r="G2" s="10">
+        <v>0.12847222222222224</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1227,33 +1238,51 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="10">
+        <v>196</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="10">
         <v>0.12986111111111112</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>35</v>
+      <c r="G3" s="10">
+        <v>0.12986111111111112</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1262,33 +1291,51 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="10">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10">
         <v>0.45555555555555555</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
+      <c r="G4" s="10">
+        <v>0.45555555555555555</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
@@ -1297,33 +1344,51 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="12">
+        <v>193</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="12">
         <v>0.23819444444444446</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="12">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -1332,33 +1397,51 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="12">
+        <v>194</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="12">
         <v>0.39374999999999999</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>44</v>
+      <c r="G6" s="12">
+        <v>0.39374999999999999</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>75</v>
+        <v>198</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -1367,33 +1450,51 @@
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="12">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="12">
         <v>0.47500000000000003</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>147</v>
+      <c r="G7" s="12">
+        <v>0.47500000000000003</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -1402,33 +1503,51 @@
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="12">
+        <v>137</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="12">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>155</v>
+      <c r="G8" s="12">
+        <v>0.52500000000000002</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>126</v>
+        <v>138</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="15">
         <v>3</v>
@@ -1437,33 +1556,51 @@
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="17">
+        <v>151</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="17">
         <v>0.25763888888888892</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>169</v>
+      <c r="G9" s="17">
+        <v>0.25763888888888892</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>130</v>
+        <v>152</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B10" s="15">
         <v>3</v>
@@ -1472,33 +1609,51 @@
         <v>2</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="17">
+        <v>59</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="17">
         <v>0.21180555555555555</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>162</v>
+      <c r="G10" s="17">
+        <v>0.21180555555555555</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>128</v>
+        <v>145</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B11" s="15">
         <v>3</v>
@@ -1507,33 +1662,51 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="17">
+        <v>133</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="17">
         <v>0.45069444444444445</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>151</v>
+      <c r="G11" s="17">
+        <v>0.45069444444444445</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>125</v>
+        <v>134</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
@@ -1542,33 +1715,51 @@
         <v>4</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="17">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="17">
         <v>0.12708333333333333</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>158</v>
+      <c r="G12" s="17">
+        <v>0.12708333333333333</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
@@ -1577,33 +1768,51 @@
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="17">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="17">
         <v>0.61597222222222225</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>172</v>
+      <c r="G13" s="17">
+        <v>0.61597222222222225</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>131</v>
+        <v>155</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B14" s="15">
         <v>3</v>
@@ -1612,33 +1821,51 @@
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="17">
+        <v>66</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="17">
         <v>0.40625</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>196</v>
+      <c r="G14" s="17">
+        <v>0.40625</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>140</v>
+        <v>179</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" s="19">
         <v>4</v>
@@ -1647,33 +1874,51 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="20">
+        <v>62</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="20">
         <v>0.57986111111111105</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>35</v>
+      <c r="G15" s="20">
+        <v>0.57986111111111105</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>135</v>
+        <v>32</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" s="19">
         <v>4</v>
@@ -1682,28 +1927,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="20">
+        <v>163</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="20">
         <v>0.68888888888888899</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>181</v>
+      <c r="G16" s="20">
+        <v>0.68888888888888899</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>134</v>
+        <v>164</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>103</v>
+        <v>165</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1727,25 +1990,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1757,9 +2020,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1768,33 +2031,33 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>0.39999999999999997</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1803,33 +2066,33 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3">
         <v>0.14930555555555555</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1838,33 +2101,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -1873,33 +2136,33 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -1908,33 +2171,33 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1943,33 +2206,33 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3">
         <v>0.47638888888888892</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -1978,33 +2241,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E8" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2013,33 +2276,33 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3">
         <v>0.69444444444444453</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -2048,33 +2311,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3">
         <v>0.63055555555555554</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -2083,33 +2346,33 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3">
         <v>0.37638888888888888</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
@@ -2118,33 +2381,33 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3">
         <v>0.27361111111111108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2153,33 +2416,33 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3">
         <v>0.25625000000000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2188,28 +2451,28 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3">
         <v>0.26041666666666669</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Projects/Data_Science_Short_Course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98AD2D1-DF58-8343-8635-698C8D3BD871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62FEAA-FF61-8641-9290-81CFF91FC846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="500" windowWidth="38280" windowHeight="28300" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material_data_science_sh" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="215">
   <si>
     <t>Titel</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Vimeo</t>
-  </si>
-  <si>
-    <t>Installation</t>
   </si>
   <si>
     <t>Als erstes installieren wir Jupyter Notebooks. Dazu verwenden wir Anaconda, welches wir über: https://www.anaconda.com/products/individual erhalten.</t>
@@ -88,9 +85,6 @@
 </t>
   </si>
   <si>
-    <t>https://youtu.be/SwjXloggvRM</t>
-  </si>
-  <si>
     <t>https://youtu.be/xn-1s7TRkIk</t>
   </si>
   <si>
@@ -626,9 +620,6 @@
     <t>def, return, import</t>
   </si>
   <si>
-    <t>installation</t>
-  </si>
-  <si>
     <t>print()</t>
   </si>
   <si>
@@ -657,6 +648,42 @@
   </si>
   <si>
     <t>key words</t>
+  </si>
+  <si>
+    <t>installation, Anaconda</t>
+  </si>
+  <si>
+    <t>installation, Colab</t>
+  </si>
+  <si>
+    <t>Basics_Variables_Operators_Indents_Lists_Comments</t>
+  </si>
+  <si>
+    <t>https://youtu.be/m7uvkzKhXfQ</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook installation with Anaconda</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook installation with Google Colab</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2zzpgml8_fw</t>
+  </si>
+  <si>
+    <t>Als erstes installieren wir Jupyter Notebooks. Dazu verwenden wir Google Colab.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wIZ5UaoPWUA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Zn3-GU1zXfs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ywORHcXIdss</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9K-SAhi47yI</t>
   </si>
 </sst>
 </file>
@@ -727,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -792,6 +819,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,57 +1154,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1185,51 +1213,51 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F2" s="10">
         <v>0.12847222222222224</v>
       </c>
       <c r="G2" s="10">
-        <v>0.12847222222222224</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>6</v>
+      <c r="Q2" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1238,51 +1266,51 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F3" s="10">
-        <v>0.12986111111111112</v>
+        <v>0.17222222222222225</v>
       </c>
       <c r="G3" s="10">
-        <v>0.12986111111111112</v>
+        <v>0.19583333333333333</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1291,352 +1319,352 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.45555555555555555</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
       </c>
       <c r="C6" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="12">
-        <v>0.39374999999999999</v>
+        <v>0.23819444444444446</v>
       </c>
       <c r="G6" s="12">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="11" t="s">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="11">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="F7" s="12">
-        <v>0.47500000000000003</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="G7" s="12">
-        <v>0.47500000000000003</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
       </c>
       <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="K9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="15">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.25763888888888892</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.25763888888888892</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="N9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B10" s="15">
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>2</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="F10" s="17">
-        <v>0.21180555555555555</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="G10" s="17">
-        <v>0.21180555555555555</v>
+        <v>0.25763888888888892</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>112</v>
@@ -1645,328 +1673,381 @@
         <v>112</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B11" s="15">
         <v>3</v>
       </c>
       <c r="C11" s="15">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>133</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="F11" s="17">
-        <v>0.45069444444444445</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="G11" s="17">
-        <v>0.45069444444444445</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
       </c>
       <c r="C12" s="15">
-        <v>4</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="F12" s="17">
-        <v>0.12708333333333333</v>
+        <v>0.45069444444444445</v>
       </c>
       <c r="G12" s="17">
-        <v>0.12708333333333333</v>
+        <v>0.45069444444444445</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="17">
-        <v>0.61597222222222225</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="G13" s="17">
-        <v>0.61597222222222225</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B14" s="15">
         <v>3</v>
       </c>
       <c r="C14" s="15">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15">
         <v>6</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="D15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="17">
         <v>0.40625</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>0.40625</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H15" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="M15" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="19">
-        <v>4</v>
-      </c>
-      <c r="C15" s="19">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="N15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="19">
         <v>4</v>
       </c>
       <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="19">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="K17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="20">
-        <v>0.68888888888888899</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0.68888888888888899</v>
-      </c>
-      <c r="H16" s="19" t="s">
+      <c r="L17" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="M17" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>89</v>
+      <c r="N17" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1990,25 +2071,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -2017,12 +2098,12 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2031,33 +2112,33 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>0.39999999999999997</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2066,33 +2147,33 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>0.14930555555555555</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -2101,33 +2182,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3">
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2136,33 +2217,33 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2171,33 +2252,33 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2206,33 +2287,33 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3">
         <v>0.47638888888888892</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2241,33 +2322,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2276,33 +2357,33 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3">
         <v>0.69444444444444453</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -2311,33 +2392,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3">
         <v>0.63055555555555554</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -2346,33 +2427,33 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3">
         <v>0.37638888888888888</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
@@ -2381,33 +2462,33 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3">
         <v>0.27361111111111108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2416,33 +2497,33 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>0.25625000000000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2451,28 +2532,28 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
         <v>0.26041666666666669</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62FEAA-FF61-8641-9290-81CFF91FC846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD5B4D0-D70D-4744-A1F2-9897975377B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material_data_science_sh" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="214">
   <si>
     <t>Titel</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Übungen ipynb</t>
   </si>
   <si>
-    <t>Basics_Variables_Operators_Indents_Lists_Comments.ipynb</t>
-  </si>
-  <si>
     <t>Exercise_Basics_Variables_Operators_Indents_Lists_Comments.ipynb</t>
   </si>
   <si>
@@ -656,9 +653,6 @@
     <t>installation, Colab</t>
   </si>
   <si>
-    <t>Basics_Variables_Operators_Indents_Lists_Comments</t>
-  </si>
-  <si>
     <t>https://youtu.be/m7uvkzKhXfQ</t>
   </si>
   <si>
@@ -684,6 +678,9 @@
   </si>
   <si>
     <t>https://youtu.be/9K-SAhi47yI</t>
+  </si>
+  <si>
+    <t>Basics_Variables_Operators_Lists_Indents_Comments</t>
   </si>
 </sst>
 </file>
@@ -754,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -819,7 +816,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,22 +1130,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L1" activeCellId="2" sqref="H1:H1048576 J1:J1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="4" max="5" width="35.83203125" customWidth="1"/>
-    <col min="8" max="13" width="15" customWidth="1"/>
-    <col min="14" max="15" width="47" customWidth="1"/>
-    <col min="16" max="17" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15" customWidth="1"/>
+    <col min="11" max="12" width="47" customWidth="1"/>
+    <col min="13" max="14" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,48 +1159,39 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1213,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="10">
         <v>0.12847222222222224</v>
@@ -1225,39 +1212,30 @@
         <v>0.18124999999999999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="N2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1266,10 +1244,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" s="10">
         <v>0.17222222222222225</v>
@@ -1278,37 +1256,28 @@
         <v>0.19583333333333333</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="P3" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" t="s">
         <v>209</v>
       </c>
-      <c r="Q3" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1319,10 +1288,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" s="10">
         <v>0.12986111111111112</v>
@@ -1331,37 +1300,28 @@
         <v>0.16805555555555554</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1384,7 +1344,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>24</v>
@@ -1393,30 +1353,21 @@
         <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -1425,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="12">
         <v>0.23819444444444446</v>
@@ -1437,7 +1388,7 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>34</v>
@@ -1445,31 +1396,22 @@
       <c r="J6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>36</v>
+      <c r="K6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -1478,10 +1420,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="12">
         <v>0.39374999999999999</v>
@@ -1490,39 +1432,30 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>38</v>
+      <c r="K7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="N7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -1531,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="12">
         <v>0.47500000000000003</v>
@@ -1543,7 +1476,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>128</v>
@@ -1551,31 +1484,22 @@
       <c r="J8" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>130</v>
+      <c r="K8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
@@ -1584,10 +1508,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="12">
         <v>0.52500000000000002</v>
@@ -1596,7 +1520,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>136</v>
@@ -1604,31 +1528,22 @@
       <c r="J9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>138</v>
+      <c r="K9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="15">
         <v>3</v>
@@ -1637,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="17">
         <v>0.25763888888888892</v>
@@ -1649,7 +1564,7 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>150</v>
@@ -1657,31 +1572,22 @@
       <c r="J10" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>152</v>
+      <c r="K10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="15">
         <v>3</v>
@@ -1690,10 +1596,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="17">
         <v>0.21180555555555555</v>
@@ -1702,7 +1608,7 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>143</v>
@@ -1710,31 +1616,22 @@
       <c r="J11" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>145</v>
+      <c r="K11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
@@ -1743,10 +1640,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="17">
         <v>0.45069444444444445</v>
@@ -1755,7 +1652,7 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>132</v>
@@ -1763,31 +1660,22 @@
       <c r="J12" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>134</v>
+      <c r="K12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
@@ -1796,10 +1684,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="17">
         <v>0.12708333333333333</v>
@@ -1808,7 +1696,7 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>139</v>
@@ -1816,31 +1704,22 @@
       <c r="J13" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>141</v>
+      <c r="K13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="15">
         <v>3</v>
@@ -1849,10 +1728,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="17">
         <v>0.61597222222222225</v>
@@ -1861,7 +1740,7 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>153</v>
@@ -1869,31 +1748,22 @@
       <c r="J14" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>155</v>
+      <c r="K14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
@@ -1902,10 +1772,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="17">
         <v>0.40625</v>
@@ -1914,7 +1784,7 @@
         <v>0.40625</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>177</v>
@@ -1922,31 +1792,22 @@
       <c r="J15" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>179</v>
+      <c r="K15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="19">
         <v>4</v>
@@ -1955,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="20">
         <v>0.57986111111111105</v>
@@ -1967,39 +1828,30 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="19">
         <v>4</v>
@@ -2008,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="20">
         <v>0.68888888888888899</v>
@@ -2020,7 +1872,7 @@
         <v>0.68888888888888899</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>162</v>
@@ -2028,26 +1880,17 @@
       <c r="J17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>164</v>
+      <c r="K17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2118,13 +1961,13 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -2138,7 +1981,7 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2147,33 +1990,33 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3">
         <v>0.14930555555555555</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -2182,33 +2025,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3">
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2217,33 +2060,33 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2252,33 +2095,33 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2287,33 +2130,33 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>0.47638888888888892</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2322,33 +2165,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2357,33 +2200,33 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>0.69444444444444453</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -2392,33 +2235,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3">
         <v>0.63055555555555554</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -2427,33 +2270,33 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3">
         <v>0.37638888888888888</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
@@ -2462,33 +2305,33 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3">
         <v>0.27361111111111108</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2497,33 +2340,33 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>0.25625000000000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2532,28 +2375,28 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>0.26041666666666669</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD5B4D0-D70D-4744-A1F2-9897975377B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390145CE-1512-4546-A3E7-5B8BE5933A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -677,10 +677,10 @@
     <t>https://youtu.be/ywORHcXIdss</t>
   </si>
   <si>
-    <t>https://youtu.be/9K-SAhi47yI</t>
-  </si>
-  <si>
     <t>Basics_Variables_Operators_Lists_Indents_Comments</t>
+  </si>
+  <si>
+    <t>https://youtu.be/dFW6XTDGjBo</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -816,6 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" activeCellId="2" sqref="H1:H1048576 J1:J1048576 L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1345,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>24</v>
@@ -1358,8 +1359,8 @@
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" t="s">
-        <v>212</v>
+      <c r="M5" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="N5" t="s">
         <v>211</v>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390145CE-1512-4546-A3E7-5B8BE5933A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84FE0A-4F51-264B-88A1-25954C1A5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="212">
   <si>
     <t>Titel</t>
   </si>
@@ -99,9 +99,6 @@
 </t>
   </si>
   <si>
-    <t>https://vimeo.com/599697126</t>
-  </si>
-  <si>
     <t>https://youtu.be/8MyvQP42sLY</t>
   </si>
   <si>
@@ -642,9 +639,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>key words</t>
   </si>
   <si>
     <t>installation, Anaconda</t>
@@ -751,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -816,7 +810,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,22 +1128,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="4" max="5" width="35.83203125" customWidth="1"/>
-    <col min="8" max="10" width="15" customWidth="1"/>
-    <col min="11" max="12" width="47" customWidth="1"/>
-    <col min="13" max="14" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="10" max="11" width="47" customWidth="1"/>
+    <col min="12" max="13" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,39 +1157,36 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1201,42 +1195,39 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.12847222222222224</v>
       </c>
       <c r="F2" s="10">
-        <v>0.12847222222222224</v>
-      </c>
-      <c r="G2" s="10">
         <v>0.18124999999999999</v>
       </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1245,40 +1236,37 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.17222222222222225</v>
       </c>
       <c r="F3" s="10">
-        <v>0.17222222222222225</v>
-      </c>
-      <c r="G3" s="10">
         <v>0.19583333333333333</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="N3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1289,40 +1277,37 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.12986111111111112</v>
       </c>
       <c r="F4" s="10">
-        <v>0.12986111111111112</v>
-      </c>
-      <c r="G4" s="10">
         <v>0.16805555555555554</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="M4" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1335,40 +1320,37 @@
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
+      <c r="E5" s="10">
+        <v>0.54652777777777783</v>
       </c>
       <c r="F5" s="10">
-        <v>0.54583333333333328</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.54999999999999993</v>
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
+      <c r="L5" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -1376,43 +1358,35 @@
       <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>35</v>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -1421,42 +1395,37 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.23819444444444446</v>
       </c>
       <c r="F7" s="12">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>36</v>
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -1464,43 +1433,38 @@
       <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>55</v>
+      <c r="D8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.39374999999999999</v>
       </c>
       <c r="F8" s="12">
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.47500000000000003</v>
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
@@ -1509,348 +1473,308 @@
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="15">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.25763888888888892</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0.25763888888888892</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="J10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="B11" s="15">
         <v>3</v>
       </c>
       <c r="C11" s="15">
-        <v>2</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.25763888888888892</v>
       </c>
       <c r="F11" s="17">
-        <v>0.21180555555555555</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0.21180555555555555</v>
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
       </c>
       <c r="C12" s="15">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.21180555555555555</v>
       </c>
       <c r="F12" s="17">
-        <v>0.45069444444444445</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.45069444444444445</v>
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="15">
-        <v>4</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.45069444444444445</v>
       </c>
       <c r="F13" s="17">
-        <v>0.12708333333333333</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.12708333333333333</v>
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15">
         <v>3</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.12708333333333333</v>
       </c>
       <c r="F14" s="17">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.61597222222222225</v>
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>154</v>
+        <v>139</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
       </c>
       <c r="C15" s="15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15">
         <v>6</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="D16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="17">
         <v>0.40625</v>
       </c>
-      <c r="G15" s="17">
+      <c r="F16" s="17">
         <v>0.40625</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="G16" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="19">
-        <v>4</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="J16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
@@ -1858,41 +1782,75 @@
         <v>4</v>
       </c>
       <c r="C17" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>160</v>
+        <v>58</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.57986111111111105</v>
       </c>
       <c r="F17" s="20">
-        <v>0.68888888888888899</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0.68888888888888899</v>
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>163</v>
+        <v>28</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="19" t="s">
+      <c r="L17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="19" t="s">
-        <v>86</v>
-      </c>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1905,7 +1863,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,10 +1888,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1945,44 +1903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1991,33 +1914,33 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>0.14930555555555555</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -2026,33 +1949,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3">
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2061,33 +1984,33 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2096,33 +2019,33 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2131,33 +2054,33 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3">
         <v>0.47638888888888892</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2166,33 +2089,33 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2201,33 +2124,33 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3">
         <v>0.69444444444444453</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -2236,33 +2159,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3">
         <v>0.63055555555555554</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -2271,33 +2194,33 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3">
         <v>0.37638888888888888</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
@@ -2306,33 +2229,33 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
         <v>0.27361111111111108</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2341,33 +2264,33 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3">
         <v>0.25625000000000003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2376,28 +2299,28 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>0.26041666666666669</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84FE0A-4F51-264B-88A1-25954C1A5007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57826806-9AA7-8E4A-B762-85D9445381E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="217">
   <si>
     <t>Titel</t>
   </si>
@@ -241,9 +241,6 @@
     <t xml:space="preserve">Und schon jetzt wird es wirklich cool: wir basteln uns einen eigenen Befehl, und legen den in einer Datei ab. Diese Datei können wir fortan importieren wenn wir den Befehl brauchen, und diesen dann einfach anwenden. – Die Datei lässt sich ab sofort um immer mehr Befehle erweitern, welche in der Mineralogie nützlich sind: Aufschmelzung, Mischung, Umrechnungen, Formelberechnung, Isotopen-Fraktionierungen, Gesteinsalter, Thermobarometrie, jegliche Modelle – und vieles mehr. </t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=x78T8dn8bW4</t>
-  </si>
-  <si>
     <t>https://youtu.be/E5GU7NLoKBI</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
   </si>
   <si>
     <t>Solution_Basics_Introduction_to_making_a_plot_using_matplotlib.ipynb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.iloc(), .loc(),  .set_index() </t>
   </si>
   <si>
     <t>Basics_Selecting_data_using_locations_and_indices.ipynb</t>
@@ -675,6 +669,27 @@
   </si>
   <si>
     <t>https://youtu.be/dFW6XTDGjBo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bDn0MjBiA7w</t>
+  </si>
+  <si>
+    <t>https://youtu.be/a89vyisvH0E</t>
+  </si>
+  <si>
+    <t>https://youtu.be/eDpmB_sPsrs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bCleoYwBu5A</t>
+  </si>
+  <si>
+    <t>https://youtu.be/eVDAEJduHPc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.columns, .tolist(), .iloc(), .loc(),  .set_index() </t>
+  </si>
+  <si>
+    <t>https://youtu.be/aMdzmwoq4BM</t>
   </si>
 </sst>
 </file>
@@ -745,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -808,10 +823,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,33 +1171,33 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1195,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E2" s="10">
         <v>0.12847222222222224</v>
@@ -1221,13 +1232,13 @@
       <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>202</v>
+      <c r="M2" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1236,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="10">
         <v>0.17222222222222225</v>
@@ -1254,16 +1265,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L3" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1277,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="10">
         <v>0.12986111111111112</v>
@@ -1303,8 +1314,8 @@
       <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>208</v>
+      <c r="M4" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1327,7 +1338,7 @@
         <v>0.55069444444444449</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -1341,11 +1352,11 @@
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="L5" s="5" t="s">
         <v>209</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -1364,7 +1375,9 @@
       <c r="E6" s="12">
         <v>0.39999999999999997</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12">
+        <v>0.48680555555555555</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1382,6 +1395,9 @@
       </c>
       <c r="L6" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1395,13 +1411,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="12">
         <v>0.23819444444444446</v>
       </c>
       <c r="F7" s="12">
-        <v>0.23819444444444446</v>
+        <v>0.37916666666666665</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>32</v>
@@ -1421,7 +1437,9 @@
       <c r="L7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="11" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -1434,16 +1452,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="12">
-        <v>0.39374999999999999</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="F8" s="12">
-        <v>0.39374999999999999</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>35</v>
@@ -1458,13 +1476,15 @@
         <v>66</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="23"/>
+        <v>212</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
@@ -1482,24 +1502,26 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -1512,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="E10" s="12">
         <v>0.52500000000000002</v>
@@ -1521,24 +1543,26 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="J10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -1551,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="17">
         <v>0.25763888888888892</v>
@@ -1560,28 +1584,27 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="J11" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="23"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
@@ -1599,24 +1622,23 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>143</v>
-      </c>
       <c r="J12" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="23"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1629,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="17">
         <v>0.45069444444444445</v>
@@ -1638,24 +1660,23 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>132</v>
-      </c>
       <c r="J13" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="23"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -1677,24 +1698,23 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="J14" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="23"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1716,24 +1736,23 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>153</v>
-      </c>
       <c r="J15" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="23"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1755,26 +1774,25 @@
         <v>0.40625</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>177</v>
-      </c>
       <c r="J16" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
@@ -1803,17 +1821,16 @@
         <v>28</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
@@ -1824,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" s="20">
         <v>0.68888888888888899</v>
@@ -1833,26 +1850,32 @@
         <v>0.68888888888888899</v>
       </c>
       <c r="G18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>162</v>
-      </c>
       <c r="J18" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="23"/>
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M7" r:id="rId1" xr:uid="{D2A42FB9-B895-CA4B-A31D-2DF881C2B95B}"/>
+    <hyperlink ref="L8" r:id="rId2" xr:uid="{68F085DE-3614-A840-A6AF-DBDD31919A8C}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{0707E944-37B2-E646-A3C0-40E89AB0F2B9}"/>
+    <hyperlink ref="M9" r:id="rId4" xr:uid="{29C3A255-EF2E-2144-893D-B3390B69D0F0}"/>
+    <hyperlink ref="M10" r:id="rId5" xr:uid="{803E6456-967E-5844-AD60-0E40263EF1A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1905,7 +1928,7 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1929,13 +1952,13 @@
         <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -1955,27 +1978,27 @@
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -1990,22 +2013,22 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
@@ -2025,27 +2048,27 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2063,19 +2086,19 @@
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2089,28 +2112,28 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -2130,22 +2153,22 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2165,22 +2188,22 @@
         <v>0.63055555555555554</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -2200,27 +2223,27 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
@@ -2235,27 +2258,27 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2279,13 +2302,13 @@
         <v>28</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2311,16 +2334,16 @@
         <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57826806-9AA7-8E4A-B762-85D9445381E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EAF58D-B367-004B-B4F0-BF5E387F4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="221">
   <si>
     <t>Titel</t>
   </si>
@@ -169,9 +169,6 @@
     <t xml:space="preserve">Basics- Introduction to interactive elements </t>
   </si>
   <si>
-    <t xml:space="preserve">Command- if, elif, else </t>
-  </si>
-  <si>
     <t xml:space="preserve">Program- Visualising data from various databases </t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>https://youtu.be/zTn6HiK_0Sc</t>
   </si>
   <si>
-    <t>https://vimeo.com/613444692</t>
-  </si>
-  <si>
     <t>https://youtu.be/WXv79tpor5s</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
   </si>
   <si>
     <t>https://youtu.be/U1KDPsTmvgw</t>
-  </si>
-  <si>
-    <t>https://youtu.be/aCY6PWt_TTU</t>
   </si>
   <si>
     <t>https://vimeo.com/648742504</t>
@@ -690,6 +681,27 @@
   </si>
   <si>
     <t>https://youtu.be/aMdzmwoq4BM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command- conditionals: if, elif, else </t>
+  </si>
+  <si>
+    <t>https://youtu.be/HEZ3-hKeI3U</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2xNphQoii2A</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iG0iYn3zyk8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fVtpwhDRpdM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kBkCtRFmkqs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rEomcm_E7j4</t>
   </si>
 </sst>
 </file>
@@ -710,7 +722,7 @@
       <name val="Corbel"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +759,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -760,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -824,6 +842,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,33 +1192,33 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1206,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" s="10">
         <v>0.12847222222222224</v>
@@ -1233,12 +1254,12 @@
         <v>5</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1247,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="10">
         <v>0.17222222222222225</v>
@@ -1265,16 +1286,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1288,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E4" s="10">
         <v>0.12986111111111112</v>
@@ -1315,7 +1336,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1338,7 +1359,7 @@
         <v>0.55069444444444449</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -1353,10 +1374,10 @@
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -1397,7 +1418,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1411,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7" s="12">
         <v>0.23819444444444446</v>
@@ -1438,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1452,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E8" s="12">
         <v>0.37083333333333335</v>
@@ -1461,7 +1482,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>35</v>
@@ -1470,21 +1491,21 @@
         <v>36</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
@@ -1493,34 +1514,34 @@
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="12">
         <v>0.47500000000000003</v>
       </c>
       <c r="F9" s="12">
-        <v>0.47500000000000003</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1534,39 +1555,39 @@
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E10" s="12">
         <v>0.52500000000000002</v>
       </c>
       <c r="F10" s="12">
-        <v>0.52500000000000002</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="B11" s="15">
         <v>3</v>
@@ -1575,36 +1596,39 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="17">
         <v>0.25763888888888892</v>
       </c>
       <c r="F11" s="17">
-        <v>0.25763888888888892</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
@@ -1613,31 +1637,34 @@
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="17">
         <v>0.21180555555555555</v>
       </c>
       <c r="F12" s="17">
-        <v>0.21180555555555555</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1651,31 +1678,34 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="17">
         <v>0.45069444444444445</v>
       </c>
       <c r="F13" s="17">
-        <v>0.45069444444444445</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1695,30 +1725,33 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="F14" s="17">
-        <v>0.12708333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>44</v>
+      <c r="A15" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
@@ -1726,37 +1759,36 @@
       <c r="C15" s="15">
         <v>5</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.61597222222222225</v>
-      </c>
+      <c r="D15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="15" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>79</v>
+        <v>219</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" s="15">
         <v>3</v>
@@ -1765,36 +1797,34 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="E16" s="17">
-        <v>0.40625</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.40625</v>
-      </c>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F16" s="17"/>
       <c r="G16" s="15" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="19">
         <v>4</v>
@@ -1803,14 +1833,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="20">
         <v>0.57986111111111105</v>
       </c>
-      <c r="F17" s="20">
-        <v>0.57986111111111105</v>
-      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1821,18 +1849,18 @@
         <v>28</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="19">
         <v>4</v>
@@ -1841,31 +1869,29 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E18" s="20">
         <v>0.68888888888888899</v>
       </c>
-      <c r="F18" s="20">
-        <v>0.68888888888888899</v>
-      </c>
+      <c r="F18" s="20"/>
       <c r="G18" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1875,6 +1901,12 @@
     <hyperlink ref="M8" r:id="rId3" xr:uid="{0707E944-37B2-E646-A3C0-40E89AB0F2B9}"/>
     <hyperlink ref="M9" r:id="rId4" xr:uid="{29C3A255-EF2E-2144-893D-B3390B69D0F0}"/>
     <hyperlink ref="M10" r:id="rId5" xr:uid="{803E6456-967E-5844-AD60-0E40263EF1A9}"/>
+    <hyperlink ref="M11" r:id="rId6" xr:uid="{59AB5D0D-A0E3-5B44-9B1F-9EA6F1A415B7}"/>
+    <hyperlink ref="M12" r:id="rId7" xr:uid="{AD0AC3A4-69C3-404A-A2B2-646656B3D63E}"/>
+    <hyperlink ref="M13" r:id="rId8" xr:uid="{D3170741-6149-0140-BE6A-C5A83A618382}"/>
+    <hyperlink ref="M14" r:id="rId9" xr:uid="{5BB9F5EA-A9B8-034F-9106-CFCD51B3CD34}"/>
+    <hyperlink ref="L15" r:id="rId10" xr:uid="{344A6D65-D1B2-9D40-9141-578A8B483BDF}"/>
+    <hyperlink ref="M15" r:id="rId11" xr:uid="{8A0E5BF3-318C-444D-8567-38725E4F4CBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1883,15 +1915,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49E4A71-C3B0-D24F-AFD3-D272BB444CE1}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,9 +1961,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1952,16 +1987,16 @@
         <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1972,33 +2007,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3">
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2007,33 +2042,33 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2042,33 +2077,33 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2077,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3">
         <v>0.47638888888888892</v>
@@ -2086,264 +2121,263 @@
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.63055555555555554</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="3">
-        <v>0.37638888888888888</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
       </c>
       <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.27361111111111108</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.25625000000000003</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1">
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.26041666666666669</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EAF58D-B367-004B-B4F0-BF5E387F4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C1887-5CEF-F243-974A-1418850DA832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="223">
   <si>
     <t>Titel</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>https://youtu.be/rEomcm_E7j4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zuPAWFL0jVY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pvHJ7rn7za8</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1762,8 +1768,12 @@
       <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="17">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.3034722222222222</v>
+      </c>
       <c r="G15" s="15" t="s">
         <v>170</v>
       </c>
@@ -1802,7 +1812,9 @@
       <c r="E16" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17">
+        <v>0.53402777777777777</v>
+      </c>
       <c r="G16" s="15" t="s">
         <v>151</v>
       </c>
@@ -1821,8 +1833,11 @@
       <c r="L16" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="M16" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
@@ -1838,7 +1853,9 @@
       <c r="E17" s="20">
         <v>0.57986111111111105</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="20">
+        <v>0.76944444444444438</v>
+      </c>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1857,8 +1874,11 @@
       <c r="L17" s="19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M17" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
@@ -1907,6 +1927,8 @@
     <hyperlink ref="M14" r:id="rId9" xr:uid="{5BB9F5EA-A9B8-034F-9106-CFCD51B3CD34}"/>
     <hyperlink ref="L15" r:id="rId10" xr:uid="{344A6D65-D1B2-9D40-9141-578A8B483BDF}"/>
     <hyperlink ref="M15" r:id="rId11" xr:uid="{8A0E5BF3-318C-444D-8567-38725E4F4CBB}"/>
+    <hyperlink ref="M16" r:id="rId12" xr:uid="{60DC5885-BAB1-D245-AA45-4A0B6E29BC87}"/>
+    <hyperlink ref="M17" r:id="rId13" xr:uid="{25E32FD8-F23F-FA40-83C4-3B98BEFEE498}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1917,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49E4A71-C3B0-D24F-AFD3-D272BB444CE1}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>182</v>
       </c>
@@ -2031,7 +2053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>161</v>
       </c>
@@ -2170,7 +2192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
@@ -2275,7 +2297,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>173</v>
       </c>
@@ -2310,7 +2332,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>120</v>
       </c>
@@ -2345,7 +2367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C1887-5CEF-F243-974A-1418850DA832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107753C-04FF-B94F-A8C2-E43F3DEDA754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -1894,7 +1894,9 @@
       <c r="E18" s="20">
         <v>0.68888888888888899</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="20">
+        <v>0.68888888888888899</v>
+      </c>
       <c r="G18" s="19" t="s">
         <v>155</v>
       </c>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107753C-04FF-B94F-A8C2-E43F3DEDA754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592F957-2D24-6043-9DA5-FC7C7A3A9F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="223">
   <si>
     <t>Titel</t>
   </si>
@@ -714,7 +714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,6 +726,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Corbel"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -781,10 +789,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -852,8 +861,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1168,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1854,7 +1867,7 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="F17" s="20">
-        <v>0.76944444444444438</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>28</v>
@@ -1914,6 +1927,9 @@
       </c>
       <c r="L18" s="19" t="s">
         <v>82</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1931,6 +1947,7 @@
     <hyperlink ref="M15" r:id="rId11" xr:uid="{8A0E5BF3-318C-444D-8567-38725E4F4CBB}"/>
     <hyperlink ref="M16" r:id="rId12" xr:uid="{60DC5885-BAB1-D245-AA45-4A0B6E29BC87}"/>
     <hyperlink ref="M17" r:id="rId13" xr:uid="{25E32FD8-F23F-FA40-83C4-3B98BEFEE498}"/>
+    <hyperlink ref="M18" r:id="rId14" xr:uid="{B31B9F42-5920-964D-ABE6-9EDF5D807CE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592F957-2D24-6043-9DA5-FC7C7A3A9F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352FEDED-7308-494C-B63B-E40DF1F6E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="240">
   <si>
     <t>Titel</t>
   </si>
@@ -65,18 +65,12 @@
   </si>
   <si>
     <t>Vorlesung ipynb</t>
-  </si>
-  <si>
-    <t>Wir beginnen mit einer einfachen Rechnung und einem ersten Befehl (›print( )‹), um die Funktionsweise eines Jupyter Notebooks kennen zu lernen. Achte dabei vor allem auch auf sinnvolle, Leerzeichen, Leerzeilen – und vor allem auf eine gute Beschreibung und Kommentierung.</t>
   </si>
   <si>
     <t xml:space="preserve">Simple Calculation and print( )
 </t>
   </si>
   <si>
-    <t>Wir starten mit ein paar grundsätzlichen Dingen, welche noch nicht wirklich etwas mit dem Ziel dieser Einheit zu tun haben, aber gut zu wissen sind, bevor es richtig los geht.</t>
-  </si>
-  <si>
     <t xml:space="preserve">operators; variables; print(); extract with [ ]
 </t>
   </si>
@@ -88,9 +82,6 @@
     <t>https://youtu.be/xn-1s7TRkIk</t>
   </si>
   <si>
-    <t>Wir machen mit einem Nachschlag Basics weiter – wobei, diesmal sind das schon Dinge, welche konkret für das Nachfolgende wichtig sind.</t>
-  </si>
-  <si>
     <t>functions: sum(), len(), round(), sorted(), range(), list()
 methods: append(), count(), clear(), sort()</t>
   </si>
@@ -235,9 +226,6 @@
     <t xml:space="preserve">.errorbar() </t>
   </si>
   <si>
-    <t xml:space="preserve">Und schon jetzt wird es wirklich cool: wir basteln uns einen eigenen Befehl, und legen den in einer Datei ab. Diese Datei können wir fortan importieren wenn wir den Befehl brauchen, und diesen dann einfach anwenden. – Die Datei lässt sich ab sofort um immer mehr Befehle erweitern, welche in der Mineralogie nützlich sind: Aufschmelzung, Mischung, Umrechnungen, Formelberechnung, Isotopen-Fraktionierungen, Gesteinsalter, Thermobarometrie, jegliche Modelle – und vieles mehr. </t>
-  </si>
-  <si>
     <t>https://youtu.be/E5GU7NLoKBI</t>
   </si>
   <si>
@@ -340,42 +328,15 @@
     <t xml:space="preserve">Zunächst müssen wir uns etwas anschauen, wie Datensätze und eine Datenbank überhaupt aufgebaut sind. Wir sind zwar sehr damit vertraut, Tabellen zu erstellen, als Datenbank taugen die meisten jedoch selten etwas. Datenbanken, bzw. einzelne Datensätze erstellt man mit einigen wenigen, einfachen Regeln, die wir nun kennen lernen wollen – danach sehen auch die meisten Tabellen besser aus. Außerdem lernen wir noch ein wenig hilfreiches, und Datenbank bezogenen Vokabular kennen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Python selbst stellt nur einen sehr begrenzten Umfang an Befehlen zur Daten-Manipulation zur verfügung. Allerdings gibt es sehr viele zusätzliche Befehlspakete – genannt: libraries oder packages – für alles mögliche, auch eines zur Daten-Manipulation. Diese heißt (warum auch immer) ›pandas‹, und dessen Grundzüge lernen wir nun kennen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine weitere library ist die ›matplotlib‹, die praktische alle nur denkbaren Plots und deren noch so komplizierten Darstellungen ermöglicht. In diese nehmen wir nun einen ersten, kleinen Einblick. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nun wollen wir lernen, wie leicht mit Pandas jegliche gewünschten Daten aus einer Datenbank, also z.B. einer einfachen Excel-Tabelle extrahiert werden können. Das ist besonders wichtig und hilfreich, wenn die Datenbank sehr groß ist, oder wenn man immer andere Datenbanken verwendet, die aber immer anders aufgebaut sind. Anders aufgebaut meint, dass z.B. die Kategorienamen in anderer Reihenfolge stehen, oder evtl. auch etwas anders lauten. Dann müsste bei einem Code mit Pandas nur der entsprechende Kategoriename geändert werden, der Code selbst bliebe gleich. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zum Schluss dieser Einheit wollen wir die geballte Kraft von Pandas mit der von maplotlib kombinieren. D.h., wir selektieren zunächst mit Pandas die gewünschten Daten aus einer Datenbank, und visualisieren diese umgehend und einfach mit Hilfe der matplotlib Bibliothek. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lokale Variablen gelten nur innerhalb bestimmter Befehle. Das ist sehr praktisch, da derselbe Variablen-Name ohne Konflikte dann noch woanders verwendet werden kann. Globale Variablen gelten dagegen überall, sodass eine Doppelbelegung unbedingt vermieden werden muss. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Interaktive Elemente erlauben es Anwendern die dargestellten Inhalte – also beispielsweise ein Diagramm – zu manipulieren, also damit zu interagieren. So können über Drop-Down Menüs z.B. die darzustellenden chemischen Elemente ausgewählt, oder über Slider Variablen-Werte verändert werden. Diese Elemente bilden eine GUI (graphical user interface), mit der sich richtige Programme erstellen lassen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Oftmals sollen unterschiedliche Dinge ausgeführt oder dargestellt werden, je nachdem was für eine Bedingung erfüllt ist. Wird etwa ein bestimmter Messwert unterschritten (die Bedingung), kann als Ausgabe erfolgen ›below detection limit‹. Eine Bedingung kann auch der Input eines Anwenders sein, der z.B. auswählen kann, ob auf der x-Achse die Einheit in wt% oder wt-ppm dargestellt werden soll. Bedingungen sind sehr häufig, und dieser Befehl entsprechend wichtig. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nun wollen wir einmal möglichst viel des bisher Gelernten anwenden und um schickes Programm zu bauen, mit dem auf verschiedene Datenbanken zugreifen und deren Inhalt wie gewünscht –  also Element aussuchen, Einheit festlegen – darstellen können.   </t>
   </si>
   <si>
     <t xml:space="preserve">Seit einiger Zeit sollte klar werden, dass das bisher Gelernte mit den üblichen Programmen zur Analyse und Darstellung von Daten immer schwieriger würde, vor allem wenn schnell und flexibel gestaltet werden soll. Und natürlich ist das erst der Anfang. In dieser Aufgabe sollst Du erfahren, wie sehr wir uns bald auf die Ergebnisse, und weniger auf den Weg dahin konzentrieren können. Im Video werden ein paar Sachen dargestellt, dann sollst Du selbst versuchen, den unten gezeigten Plot normiert, bzw. nicht normiert darzustellen, d.h., das Programm dafür zu schreiben. </t>
   </si>
   <si>
-    <t xml:space="preserve">Daten, die man sich aus online-Datenbanken zieht sind häufig in Listen des Typs Dictionary (z.B. json Formate). Dictionary sind schnell zugänglich und leicht verständlich nachdem wir nun Pandas DataFrames kenne – und können auch direkt in diese umformatiert werden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist eine API? Ein Application Programming Interface. Das sagt kaum mehr. Es ist eine Schnittstelle. Hilft vielleicht etwas. Angenommen, wir wollen die aktuellen Wetterdaten einer Stadt wissen. Dann können wir eine Anfrage (request) an einen Server stellen, und bekommen die Wetterdaten geliefert. Hört sich einfach an – und ist es tatsächlich auch. In dieser Einheit lernen wir also, wie wir sehr einfach Daten von einem Server in unser Jupyter Notebook laden, und dort darstellen, weiter verarbeiten, visualisieren, etc. können. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In dieser zweiten Einheit zu Pandas lernen wir weitere Möglichkeiten um Daten in pandas dataframes zu manipulieren, zählen, exportieren, etc. Es macht jedoch keinen Sinn, in diesem Kurs den vollständigen Umfang von Pandas – oder jeglicher anderer Python-Bibliothek – darzustellen. Vielmehr sucht man sich je nach zu lösender Fragestellung die nötigen Befehle aus dem persönlichen Fundus plus der entsprechenden Recherche in den einschlägigen Ressourcen aus dem Internet zusammen. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Zum Abschluss der Einheit wollen wir ein konkretes Beispiel für Data Science anschauen. Die Eu- Anomalie kennen vermutlich alle – sonst schnell mal nachschauen, was das ist. Wie sie berechnet wird, wird jedoch im Video erklärt. Am Ende werden wir ein sehr kurzes Programm haben, mit dem sich (i) die Eu-Anomalie analysieren lässt, und das (ii) sehr flexibel ist, d.h. mit dem wir nun prinzipiell die Eu-Anomalie jeder beliebigen Datenbank analysieren können. </t>
   </si>
   <si>
@@ -386,9 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zum Abschluss des Themas über die Möglichkeiten von Diagrammen und interaktiver Elemente soll vieles davon in einem komplexen, interaktiven Plot zusammengefasst werden. Das soll in einer Challenge erfolgen. D.h., ich stelle alle Elemente vor, um diesen komplexen, interaktiven Plot umzusetzen, bzw. zeige ich den Ansatz, wie das gehen könnte. Das Ergebnis soll dann in etwa so in der Abbildung aussehen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bislang haben wir Daten aus Datenbanken oder Datensätzen in Diagrammen dargestellt und ausgewertet. Letztlich sehen wir bei einer solchen Daten-Darstellung immer den letzten Zustand eines bestimmten Prozesses – oder, noch präziser formuliert: ein Prozess wird zu einem bestimmten Zeitpunkt eingefroren, und die Daten beschreiben diesen eingefrorenen Zustand. Ganz direkt trifft das bei einem Magmatit zu, der ja tatsächlich nichts anderes als gefrorenes Magma ist. Unser Ziel ist es, anhand der Daten des eingefrorenen Prozesses den Prozess des Magmas davor zu rekonstruieren. Das machen wir anhand von Modellen wie z.B. fraktionierte Kristallisation, aber auch Datierung, mit Hilfe einer eingefrorenen Isotopenzusammensetzung. Ein Prozess wird mit einer Gleichung beschrieben, welche über eine Funktion in einem Diagramm dargestellt wird. Dazu schauen wir uns an, wie man eine Funktion in Jupyter Notebooks darstellt. </t>
   </si>
   <si>
     <t xml:space="preserve">Nun wollen wir Funktionen verwenden, um damit die Rayleigh-Fraktionierung zu modellieren. </t>
@@ -708,6 +666,99 @@
   </si>
   <si>
     <t>https://youtu.be/pvHJ7rn7za8</t>
+  </si>
+  <si>
+    <t>We start with installing Jupyter Notebooks. For this we install the Anaconda environment, which we obtain from: https://www.anaconda.com/products/individual</t>
+  </si>
+  <si>
+    <t>We start with installing Jupyter Notebooks. Here we use Google Colab.</t>
+  </si>
+  <si>
+    <t>Wir beginnen mit einer einfachen Rechnung und einem ersten Befehl (›print( )‹), um die Funktionsweise eines Jupyter Notebooks kennen zu lernen. Achte dabei vor allem auch auf sinnvolle Leerzeichen, Leerzeilen – und vor allem auf eine gute Beschreibung und Kommentierung.</t>
+  </si>
+  <si>
+    <t>We start with a simple calculation and a first command (›print( )‹) to learn how Jupyter Notebooks work. Check that your code is readable, i.e., insert sensible spaces, new lines and informative comments.</t>
+  </si>
+  <si>
+    <t>Wir starten mit ein paar grundsätzlichen Dingen welche gut zu wissen und hilfreich sind, bevor wir richtig in Python einsteigen.</t>
+  </si>
+  <si>
+    <t>We start with a couple of basics that are good to know and helpful to know, before we make a full start into Python.</t>
+  </si>
+  <si>
+    <t>Wir machen mit einem Nachschlag Basics weiter, welche konkret für das Nachfolgende wichtig sind.</t>
+  </si>
+  <si>
+    <t>We continue with some basics that will need and use from now on.</t>
+  </si>
+  <si>
+    <t>Really very often a specific calculation needs to be repeated over and over again. For example, when the oxide-wt% of 500 samples need to be converted into element-wt%. This means looping this same calculation many times. Computers patiently perform such loops in breathless speed with only few lines of code. Loops are therefore very important and a core functionality of programming. Here we have a look at how loops work and apply these.</t>
+  </si>
+  <si>
+    <t>Und schon jetzt wird es wirklich cool: wir basteln uns einen eigenen Befehl. Damit können wir ab sofort neue Befehle konstruieren, welche in der Geochemie nützlich sind, z.B. für Aufschmelzung, Mischung, Umrechnungen, Formelberechnung, Isotopen-Fraktionierungen, Gesteinsalter, Thermobarometrie, jegliche Modelle – und vieles mehr. </t>
+  </si>
+  <si>
+    <t>And already now, it becomes really cool: we are crafting our own functions/commands. It will then be possible to construct new function that are helpful geochemistry, e.g., for melting, mixing, conversions, formula calculations, isotope fractionations, rock ages, thermobarometry, any model – and much more.</t>
+  </si>
+  <si>
+    <t>Python selbst stellt nur einen sehr begrenzten Umfang an Befehlen zur Daten-Manipulation zur Verfügung. Allerdings gibt es sehr viele zusätzliche Befehlspakete – genannt: libraries oder packages – für alles mögliche, auch eines zur Daten-Manipulation. Eine populäre library zur Datenmanipulation heißt – warum auch immer – ›pandas‹, und dessen Grundzüge lernen wir nun kennen. </t>
+  </si>
+  <si>
+    <t>Python itself provides a rather limited set of function for data manipulation. However, there exists a large number of additional libraries or packages that provide numerous functions for all kinds of use cases, also for data manipulation. One popular library for data manipulation is called – for whatever reason – ›pandas‹. Here we will learn the basics of this package.</t>
+  </si>
+  <si>
+    <t>Nun wollen wir lernen, wie leicht mit Pandas jegliche gewünschten Daten aus einer Datenbank, also z.B. einer einfachen Excel-Tabelle extrahiert werden können. Das ist besonders wichtig und hilfreich, wenn die Datenbank sehr groß ist, oder wenn man immer andere Datenbanken verwendet, die aber immer anders aufgebaut sind. Anders aufgebaut meint, dass z.B. die Kategorienamen in anderer Reihenfolge stehen, oder evtl. auch etwas anders lauten. Dann müsste bei einem Code mit Pandas nur der entsprechende Kategoriename geändert werden, der Code selbst bliebe gleich. </t>
+  </si>
+  <si>
+    <t>Now we are learning how easy any data can be extracted from a dataset, e.g., a simple Excel-sheet. This is particularly interesting when a database is very large, or when many different types of databases or -files are used that are always set-up a little different. the latter means: categories have a different sequence or have slightly different names. In such a case, for example, we would only need to change the category names, while the code itself would remain the same.</t>
+  </si>
+  <si>
+    <t>Oftmals sollen unterschiedliche Dinge ausgeführt oder dargestellt werden, je nachdem was für eine Bedingung erfüllt ist. Wird etwa ein bestimmter Messwert unterschritten (die Bedingung), kann als Ausgabe erfolgen ›below detection limit‹. Eine Bedingung kann auch der Input eines Anwenders sein, der z.B. auswählen kann, ob auf der x-Achse die Einheit in wt% oder wt-ppm dargestellt werden soll. Bedingungen sind sehr häufig, und dieser Befehl entsprechend wichtig. </t>
+  </si>
+  <si>
+    <t>In many cases, a specific code shall be executed, depending on a certain condition that has to be met. For example, if a value in a table is below a certain threshold, it shall be replaced by ›below detection limit‹. Another condition could come from a user, who might choose as an input whether the unit on the x-axis shall be ›wt%‹ or ›wt-ppm‹. Conditions are very common, and, hence, this is quite a critical command to know.</t>
+  </si>
+  <si>
+    <t>Lokale Variablen gelten nur innerhalb bestimmter Befehle. Das ist sehr praktisch, da derselbe Variablen-Name ohne Konflikte dann noch woanders verwendet werden kann. Globale Variablen gelten dagegen überall, sodass eine Doppelbelegung deren Namensbezeichnung unbedingt vermieden werden muss.</t>
+  </si>
+  <si>
+    <t>Local variables are only valid with specific commands/functions. This is very convenient, as then a local variable name can be used, without being in potential conflict with another variable elsewhere with the same name. Global variables are valid everywhere, and one needs to be careful while naming these.</t>
+  </si>
+  <si>
+    <t>Eine weitere populäre library ist die ›matplotlib‹, die praktische alle nur denkbaren Plots und deren noch so komplizierten Darstellungen ermöglicht. In diese nehmen wir nun einen ersten, kleinen Einblick. </t>
+  </si>
+  <si>
+    <t>Another popular library is ›matplotlib‹ that allows to basically produce every possible plot you could think of or wish for, no matter how complicated these might be. Here we will have a first glimpse into how to use this package.</t>
+  </si>
+  <si>
+    <t>Nun wollen wir die geballte Kraft von pandas mit der von maplotlib kombinieren. D.h., wir selektieren zunächst mit Pandas die gewünschten Daten aus einer Datenbank, und visualisieren diese umgehend und einfach mit Hilfe der matplotlib Bibliothek. </t>
+  </si>
+  <si>
+    <t>Now we want to combine the powers of pandas and matplotlib. For this, we first select the desired data from a given dataset using pandas, and will immediately visualise these with the matplotlib library.</t>
+  </si>
+  <si>
+    <t>Bislang haben wir Daten aus Datenbanken oder Datensätzen in Diagrammen dargestellt und ausgewertet. Letztlich sehen wir bei einer solchen Daten-Darstellung immer den letzten Zustand eines bestimmten Prozesses – oder, noch präziser formuliert: ein Prozess wird zu einem bestimmten Zeitpunkt eingefroren, und die Daten beschreiben diesen eingefrorenen Zustand. Ganz direkt trifft das bei einem Magmatit zu, der ja tatsächlich nichts anderes als gefrorenes Magma ist. Unser Ziel ist es, anhand der Daten des eingefrorenen Prozesses den Prozess des Magmas davor zu rekonstruieren. Das machen wir anhand von Modellen wie z.B. fraktionierte Kristallisation, aber auch Datierung, also in dem Fall mit Hilfe einer eingefrorenen Isotopenzusammensetzung. Ein Prozess wird mit einer Gleichung beschrieben, welche über eine Funktion in einem Diagramm dargestellt wird. Dazu schauen wir uns an, wie man eine Funktion in Jupyter Notebooks darstellt. </t>
+  </si>
+  <si>
+    <t>So far, we visualised and evaluated data from datasets. Such visualisations show us the last state of a specific process, i.e., a process that was frozen at a specific time – and the data describe this frozen state. In fact, a magmatite is nothing else but a frozen magma. It is typically our goal to use the data from this frozen state to reconstruct the process that lead to this current. For this we use models such as fractional crystallisation or age dating, in which case we use frozen isotope ratios. A process is usually described with a formula that is used in a function and then plotted in a diagram. Here we will see how we can plot functions in Jupyter Notebooks. </t>
+  </si>
+  <si>
+    <t>Daten, die man sich aus online-Datenbanken zieht sind häufig in Listen des Typs Dictionary (z.B. json Formate). Dictionaries sind schnell zugänglich und leicht verständlich nachdem wir nun Pandas DataFrames kennen – und können auch direkt in diese umformatiert werden. </t>
+  </si>
+  <si>
+    <t>Data from online databases often use dictionaries as their data format (e.g., json formats). Dictionaries are simple to access and understand, in particular as we already know pandas DataFrames – in which dictionaries can be easily converted.</t>
+  </si>
+  <si>
+    <t>Was ist eine API? Ein Application Programming Interface. Das sagt kaum mehr. Es ist eine Schnittstelle. Hilft vielleicht etwas. Angenommen, wir wollen die aktuellen Wetterdaten einer Stadt wissen. Dann können wir eine Anfrage (request) an einen Server stellen, und bekommen die Wetterdaten geliefert. Hört sich einfach an – und ist es tatsächlich auch. In dieser Einheit lernen wir, wie wir sehr einfach Daten von einem Server in unser Jupyter Notebook laden, und dort darstellen, weiter verarbeiten, visualisieren, etc. können. </t>
+  </si>
+  <si>
+    <t>API stands for: application programming interface – which doesn’t necessarily help. Let’s say we want to know the current weather of a particular city. We can then make a request to a server – which will provide us with the desired weather data. Sounds simple – and in fact it is. Here we learn how to request data from a server, and load these into our Jupyter Notebook to then display, evaluate, visualise, etc. these data.</t>
+  </si>
+  <si>
+    <t>In dieser Einheit zu Pandas lernen wir weitere Befehle, um Daten in pandas DataFrames zu manipulieren, zählen, exportieren, etc. Es macht jedoch keinen Sinn, in diesem Kurs den vollständigen Umfang von Pandas – oder jeglicher anderer Python-Bibliothek – darzustellen. Vielmehr sucht man sich je nach zu lösender Fragestellung die nötigen Befehle aus dem persönlichen Fundus plus der entsprechenden Recherche in den einschlägigen Ressourcen aus dem Internet zusammen. </t>
+  </si>
+  <si>
+    <t>In this unit about pandas we learn additional functions to manipulate, count, export, etc. data from pandas DataFrames. It is, however, not sensible to provide a systematic overview of pandas – or any other Python library. It is always the best way to find the appropriate functions for a given problem from forums or the usually excellent library documentation webpages.</t>
   </si>
 </sst>
 </file>
@@ -793,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -808,9 +859,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -821,18 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -849,20 +885,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1181,63 +1223,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="47" customWidth="1"/>
-    <col min="12" max="13" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="20" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="20"/>
+    <col min="4" max="4" width="35.83203125" style="20" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="20"/>
+    <col min="7" max="9" width="15" style="20" customWidth="1"/>
+    <col min="10" max="11" width="47" style="20" customWidth="1"/>
+    <col min="12" max="13" width="44.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>198</v>
+      <c r="M1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1245,40 +1290,40 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="15">
         <v>0.12847222222222224</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="15">
         <v>0.18124999999999999</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>4</v>
+      <c r="K2" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>199</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1286,40 +1331,40 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="15">
         <v>0.17222222222222225</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="15">
         <v>0.19583333333333333</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>201</v>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1327,40 +1372,40 @@
       <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="15">
         <v>0.12986111111111112</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="15">
         <v>0.16805555555555554</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1368,254 +1413,254 @@
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="15">
         <v>0.55069444444444449</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="J6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.48680555555555555</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.37916666666666665</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.37083333333333335</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.37083333333333335</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.47500000000000003</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="15">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>142</v>
+      <c r="D11" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="E11" s="17">
         <v>0.25763888888888892</v>
@@ -1623,40 +1668,40 @@
       <c r="F11" s="17">
         <v>0.34722222222222227</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="G11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>54</v>
+      <c r="D12" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E12" s="17">
         <v>0.21180555555555555</v>
@@ -1664,40 +1709,40 @@
       <c r="F12" s="17">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="G12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>125</v>
+      <c r="D13" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="E13" s="17">
         <v>0.45069444444444445</v>
@@ -1705,40 +1750,40 @@
       <c r="F13" s="17">
         <v>0.45347222222222222</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="G13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>28</v>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="17">
         <v>0.12708333333333333</v>
@@ -1746,40 +1791,40 @@
       <c r="F14" s="17">
         <v>0.1875</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="G14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>61</v>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E15" s="17">
         <v>0.27430555555555552</v>
@@ -1787,40 +1832,40 @@
       <c r="F15" s="17">
         <v>0.3034722222222222</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="G15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>150</v>
+      <c r="D16" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="E16" s="17">
         <v>0.52500000000000002</v>
@@ -1828,108 +1873,108 @@
       <c r="F16" s="17">
         <v>0.53402777777777777</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="G16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="18">
         <v>0.57986111111111105</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>0.76874999999999993</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="G17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8">
         <v>4</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="18">
         <v>0.68888888888888899</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>0.68888888888888899</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>222</v>
+      <c r="G18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1987,10 +2032,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -2004,7 +2049,7 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2013,33 +2058,33 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3">
         <v>0.14930555555555555</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -2048,33 +2093,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3">
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2083,33 +2128,33 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2118,33 +2163,33 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3">
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2153,67 +2198,67 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3">
         <v>0.47638888888888892</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12">
         <v>0.61597222222222225</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>0.61597222222222225</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>78</v>
+      <c r="G8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>48</v>
+      <c r="A10" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
@@ -2222,33 +2267,33 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
         <v>0.69444444444444453</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
+      <c r="A11" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -2257,33 +2302,33 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>0.63055555555555554</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
+      <c r="A12" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
@@ -2292,33 +2337,33 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <v>0.37638888888888888</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>173</v>
+      <c r="A13" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
@@ -2327,33 +2372,33 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3">
         <v>0.27361111111111108</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>120</v>
+      <c r="A14" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -2362,33 +2407,33 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3">
         <v>0.25625000000000003</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2397,28 +2442,28 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3">
         <v>0.26041666666666669</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352FEDED-7308-494C-B63B-E40DF1F6E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBD87F-F756-5D4D-AD21-3AE2C538F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material_data_science_sh" sheetId="1" r:id="rId1"/>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBD87F-F756-5D4D-AD21-3AE2C538F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA5E68-24FA-7B41-AC39-5DB977EE1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material_data_science_sh" sheetId="1" r:id="rId1"/>
@@ -692,9 +692,6 @@
     <t>We continue with some basics that will need and use from now on.</t>
   </si>
   <si>
-    <t>Really very often a specific calculation needs to be repeated over and over again. For example, when the oxide-wt% of 500 samples need to be converted into element-wt%. This means looping this same calculation many times. Computers patiently perform such loops in breathless speed with only few lines of code. Loops are therefore very important and a core functionality of programming. Here we have a look at how loops work and apply these.</t>
-  </si>
-  <si>
     <t>Und schon jetzt wird es wirklich cool: wir basteln uns einen eigenen Befehl. Damit können wir ab sofort neue Befehle konstruieren, welche in der Geochemie nützlich sind, z.B. für Aufschmelzung, Mischung, Umrechnungen, Formelberechnung, Isotopen-Fraktionierungen, Gesteinsalter, Thermobarometrie, jegliche Modelle – und vieles mehr. </t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>In this unit about pandas we learn additional functions to manipulate, count, export, etc. data from pandas DataFrames. It is, however, not sensible to provide a systematic overview of pandas – or any other Python library. It is always the best way to find the appropriate functions for a given problem from forums or the usually excellent library documentation webpages.</t>
+  </si>
+  <si>
+    <t>Very often a specific calculation needs to be repeated over and over again. For example, when the oxide-wt% of 500 samples need to be converted into element-wt%. This means looping this same calculation many times. Computers patiently perform such loops in breathless speed with only few lines of code. Loops are therefore very important and a core functionality of programming. Here we have a look at how loops work and apply these.</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1517,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>28</v>
@@ -1555,10 +1555,10 @@
         <v>33</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>195</v>
@@ -1596,10 +1596,10 @@
         <v>110</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>66</v>
@@ -1637,10 +1637,10 @@
         <v>117</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>68</v>
@@ -1678,10 +1678,10 @@
         <v>131</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>73</v>
@@ -1719,10 +1719,10 @@
         <v>124</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>70</v>
@@ -1760,10 +1760,10 @@
         <v>114</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>67</v>
@@ -1801,10 +1801,10 @@
         <v>120</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>69</v>
@@ -1842,10 +1842,10 @@
         <v>158</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>205</v>
@@ -1883,10 +1883,10 @@
         <v>139</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>77</v>
@@ -1924,10 +1924,10 @@
         <v>25</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>79</v>
@@ -1965,10 +1965,10 @@
         <v>143</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>78</v>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA5E68-24FA-7B41-AC39-5DB977EE1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE73A5-6587-2043-A3CF-12F8839CCA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material_data_science_sh" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="239">
   <si>
     <t>Titel</t>
   </si>
@@ -563,9 +563,6 @@
     <t>Task- Building a complex interactive figure</t>
   </si>
   <si>
-    <t>Command_def_return_import_making_own_commands_and_importing_these.ipynb</t>
-  </si>
-  <si>
     <t>Youtube_eng</t>
   </si>
   <si>
@@ -614,9 +611,6 @@
     <t>https://youtu.be/ywORHcXIdss</t>
   </si>
   <si>
-    <t>Basics_Variables_Operators_Lists_Indents_Comments</t>
-  </si>
-  <si>
     <t>https://youtu.be/dFW6XTDGjBo</t>
   </si>
   <si>
@@ -759,6 +753,9 @@
   </si>
   <si>
     <t>Very often a specific calculation needs to be repeated over and over again. For example, when the oxide-wt% of 500 samples need to be converted into element-wt%. This means looping this same calculation many times. Computers patiently perform such loops in breathless speed with only few lines of code. Loops are therefore very important and a core functionality of programming. Here we have a look at how loops work and apply these.</t>
+  </si>
+  <si>
+    <t>Basics_Variables_Operators_Lists_Indents_Comments.ipynb</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,33 +1253,33 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1291,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="15">
         <v>0.12847222222222224</v>
@@ -1312,18 +1309,18 @@
         <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1332,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="15">
         <v>0.17222222222222225</v>
@@ -1350,16 +1347,16 @@
         <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -1391,16 +1388,16 @@
         <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -1423,7 +1420,7 @@
         <v>0.55069444444444449</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>20</v>
@@ -1432,16 +1429,16 @@
         <v>21</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -1473,16 +1470,16 @@
         <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1517,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -1546,7 +1543,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>32</v>
@@ -1555,16 +1552,16 @@
         <v>33</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -1596,16 +1593,16 @@
         <v>110</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1619,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="16">
         <v>0.52500000000000002</v>
@@ -1637,21 +1634,21 @@
         <v>117</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B11" s="7">
         <v>3</v>
@@ -1678,16 +1675,16 @@
         <v>131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -1719,16 +1716,16 @@
         <v>124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -1760,16 +1757,16 @@
         <v>114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -1801,16 +1798,16 @@
         <v>120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="340" x14ac:dyDescent="0.2">
@@ -1842,16 +1839,16 @@
         <v>158</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -1883,16 +1880,16 @@
         <v>139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -1924,16 +1921,16 @@
         <v>25</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1965,16 +1962,16 @@
         <v>143</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>78</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/course_material_data_science_short_course.xlsx
+++ b/course_material_data_science_short_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Untitled/Data_Science_Short_Course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/GitHub.nosync/Projects/Data_Science_Short_Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE73A5-6587-2043-A3CF-12F8839CCA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AAE4D5-40F0-7746-944A-15B4BA4E2853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
+    <workbookView xWindow="5880" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{714D6FDE-5044-8C41-A759-F664A8E0F2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="course_material_data_science_sh" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="240">
   <si>
     <t>Titel</t>
   </si>
@@ -274,9 +274,6 @@
     <t>https://youtu.be/WXv79tpor5s</t>
   </si>
   <si>
-    <t>https://youtu.be/x571C3rJJM0</t>
-  </si>
-  <si>
     <t>https://youtu.be/i2fpkcdhUlU</t>
   </si>
   <si>
@@ -756,13 +753,19 @@
   </si>
   <si>
     <t>Basics_Variables_Operators_Lists_Indents_Comments.ipynb</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5znEQ4r4wx8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/VFiqUe-jfdI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -774,14 +777,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Corbel"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -837,11 +832,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -897,15 +891,11 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1220,20 +1210,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D04F-886C-8049-9DE7-006DC0C02AA6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="20" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="20"/>
-    <col min="4" max="4" width="35.83203125" style="20" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="20"/>
-    <col min="7" max="9" width="15" style="20" customWidth="1"/>
-    <col min="10" max="11" width="47" style="20" customWidth="1"/>
-    <col min="12" max="13" width="44.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="38.33203125" style="19" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="19"/>
+    <col min="4" max="4" width="35.83203125" style="19" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="19"/>
+    <col min="7" max="9" width="15" style="19" customWidth="1"/>
+    <col min="10" max="11" width="47" style="19" customWidth="1"/>
+    <col min="12" max="13" width="44.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1253,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1288,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="15">
         <v>0.12847222222222224</v>
@@ -1309,18 +1299,18 @@
         <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1329,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="15">
         <v>0.17222222222222225</v>
@@ -1347,16 +1337,16 @@
         <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -1370,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="15">
         <v>0.12986111111111112</v>
@@ -1388,16 +1378,16 @@
         <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -1420,7 +1410,7 @@
         <v>0.55069444444444449</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>20</v>
@@ -1429,16 +1419,16 @@
         <v>21</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -1470,16 +1460,16 @@
         <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1493,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="16">
         <v>0.23819444444444446</v>
@@ -1514,13 +1504,13 @@
         <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -1534,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="16">
         <v>0.37083333333333335</v>
@@ -1552,21 +1542,21 @@
         <v>33</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="L8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
@@ -1584,25 +1574,25 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="J9" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1616,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="16">
         <v>0.52500000000000002</v>
@@ -1625,30 +1615,30 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="J10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="7">
         <v>3</v>
@@ -1657,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="17">
         <v>0.25763888888888892</v>
@@ -1666,30 +1656,30 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="J11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
@@ -1707,25 +1697,25 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="J12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -1739,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="17">
         <v>0.45069444444444445</v>
@@ -1748,25 +1738,25 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="J13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -1789,25 +1779,25 @@
         <v>0.1875</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="340" x14ac:dyDescent="0.2">
@@ -1830,25 +1820,25 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="J15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="L15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -1862,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="17">
         <v>0.52500000000000002</v>
@@ -1871,25 +1861,25 @@
         <v>0.53402777777777777</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="J16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -1921,16 +1911,16 @@
         <v>25</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="L17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1944,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="18">
         <v>0.68888888888888899</v>
@@ -1953,25 +1943,25 @@
         <v>0.68888888888888899</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="J18" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="L18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>206</v>
+        <v>238</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1990,6 +1980,7 @@
     <hyperlink ref="M16" r:id="rId12" xr:uid="{60DC5885-BAB1-D245-AA45-4A0B6E29BC87}"/>
     <hyperlink ref="M17" r:id="rId13" xr:uid="{25E32FD8-F23F-FA40-83C4-3B98BEFEE498}"/>
     <hyperlink ref="M18" r:id="rId14" xr:uid="{B31B9F42-5920-964D-ABE6-9EDF5D807CE8}"/>
+    <hyperlink ref="L18" r:id="rId15" xr:uid="{59507DD5-6B2C-A74F-9E39-EC7A0ACFDDBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2046,7 +2037,7 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2070,7 +2061,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>63</v>
@@ -2096,16 +2087,16 @@
         <v>0.39166666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>71</v>
@@ -2116,7 +2107,7 @@
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2131,22 +2122,22 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="372" x14ac:dyDescent="0.2">
@@ -2166,27 +2157,27 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2204,19 +2195,19 @@
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -2235,19 +2226,19 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="J8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>74</v>
@@ -2270,22 +2261,22 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2305,22 +2296,22 @@
         <v>0.63055555555555554</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -2340,27 +2331,27 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
@@ -2375,27 +2366,27 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -2419,7 +2410,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>64</v>
@@ -2451,10 +2442,10 @@
         <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>75</v>
